--- a/Reports/Example Clinical Report.xlsx
+++ b/Reports/Example Clinical Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FY 2017-18</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Neurology</t>
+  </si>
+  <si>
+    <t>Avg Service Cost by Department</t>
   </si>
 </sst>
 </file>
@@ -56,10 +59,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -160,19 +177,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -469,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,137 +505,142 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="7">
         <v>121.56</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C4" s="7">
         <v>75.36</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D4" s="7">
         <v>56.47</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E4" s="7">
         <v>45.62</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F4" s="7">
         <v>78.28</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B5" s="7">
         <v>258.26</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C5" s="7">
         <v>123.56</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D5" s="7">
         <v>83.61</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E5" s="7">
         <v>78.23999999999999</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F5" s="7">
         <v>64.34999999999999</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B6" s="7">
         <v>101.24</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C6" s="7">
         <v>23.58</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D6" s="7">
         <v>324.16</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E6" s="7">
         <v>125.19</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F6" s="7">
         <v>324.56</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B7" s="7">
         <v>53.26</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C7" s="7">
         <v>351.24</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D7" s="7">
         <v>95.41</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E7" s="7">
         <v>236.57</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F7" s="7">
         <v>256.89</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B8" s="7">
         <v>895.14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C8" s="7">
         <v>562.14</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D8" s="7">
         <v>789.75</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E8" s="7">
         <v>675.1799999999999</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F8" s="7">
         <v>885.29</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reports/Example Clinical Report.xlsx
+++ b/Reports/Example Clinical Report.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Avg Svc Cost by Dept" sheetId="1" r:id="rId1"/>
     <sheet name="Clients by Dept &amp; Gender" sheetId="2" r:id="rId2"/>
     <sheet name="Clients by Dept &amp; Gender NEW" sheetId="3" r:id="rId3"/>
+    <sheet name="Index Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="44">
   <si>
     <t>FY 2017-18</t>
   </si>
@@ -103,6 +104,51 @@
   </si>
   <si>
     <t>Unique Clients by Department &amp; Gender (New Gender Classification Method)</t>
+  </si>
+  <si>
+    <t>data_1</t>
+  </si>
+  <si>
+    <t>data_2</t>
+  </si>
+  <si>
+    <t>index_1</t>
+  </si>
+  <si>
+    <t>index_2</t>
+  </si>
+  <si>
+    <t>index_3</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1636,7 @@
       <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="12">
@@ -1641,10 +1687,10 @@
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="12">
@@ -1698,7 +1744,7 @@
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="12">
@@ -1806,7 +1852,7 @@
       <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="12">
@@ -1857,10 +1903,10 @@
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="12">
@@ -1914,7 +1960,7 @@
       <c r="B17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="12">
@@ -2022,7 +2068,7 @@
       <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="12">
@@ -2073,10 +2119,10 @@
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="12">
@@ -2130,7 +2176,7 @@
       <c r="B25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="12">
@@ -2238,7 +2284,7 @@
       <c r="B29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="12">
@@ -2289,10 +2335,10 @@
       <c r="A31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="12">
@@ -2346,7 +2392,7 @@
       <c r="B33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="12">
@@ -2454,7 +2500,7 @@
       <c r="B37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="12">
@@ -2505,10 +2551,10 @@
       <c r="A39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="12">
@@ -2562,7 +2608,7 @@
       <c r="B41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="12">
@@ -2647,7 +2693,7 @@
       <c r="H44" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="25">
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="A20:A27"/>
@@ -2673,16 +2719,382 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reports/Example Clinical Report.xlsx
+++ b/Reports/Example Clinical Report.xlsx
@@ -10,14 +10,13 @@
     <sheet name="Avg Svc Cost by Dept" sheetId="1" r:id="rId1"/>
     <sheet name="Clients by Dept &amp; Gender" sheetId="2" r:id="rId2"/>
     <sheet name="Clients by Dept &amp; Gender NEW" sheetId="3" r:id="rId3"/>
-    <sheet name="Index Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="28">
   <si>
     <t>FY 2017-18</t>
   </si>
@@ -58,9 +57,6 @@
     <t>FY 2019-2020</t>
   </si>
   <si>
-    <t>FU 2021-22</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -104,51 +100,6 @@
   </si>
   <si>
     <t>Unique Clients by Department &amp; Gender (New Gender Classification Method)</t>
-  </si>
-  <si>
-    <t>data_1</t>
-  </si>
-  <si>
-    <t>data_2</t>
-  </si>
-  <si>
-    <t>index_1</t>
-  </si>
-  <si>
-    <t>index_2</t>
-  </si>
-  <si>
-    <t>index_3</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
   </si>
 </sst>
 </file>
@@ -784,7 +735,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -792,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -807,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5"/>
     </row>
@@ -816,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="12">
         <v>2491</v>
@@ -840,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="12">
         <v>1758</v>
@@ -864,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="12">
         <v>229</v>
@@ -888,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="12">
         <v>103</v>
@@ -912,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="12">
         <v>39</v>
@@ -936,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="14">
         <v>10</v>
@@ -960,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="12">
         <v>1736</v>
@@ -984,7 +935,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12">
         <v>1082</v>
@@ -1008,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="12">
         <v>140</v>
@@ -1032,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="12">
         <v>176</v>
@@ -1056,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="12">
         <v>22</v>
@@ -1080,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="14">
         <v>1</v>
@@ -1104,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="12">
         <v>1629</v>
@@ -1128,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12">
         <v>1891</v>
@@ -1152,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="12">
         <v>205</v>
@@ -1176,7 +1127,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="12">
         <v>103</v>
@@ -1200,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="12">
         <v>11</v>
@@ -1224,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="14">
         <v>4</v>
@@ -1248,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="12">
         <v>1990</v>
@@ -1272,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="12">
         <v>1760</v>
@@ -1296,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="12">
         <v>333</v>
@@ -1320,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="12">
         <v>263</v>
@@ -1344,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="12">
         <v>46</v>
@@ -1368,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="14">
         <v>15</v>
@@ -1392,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="12">
         <v>2480</v>
@@ -1416,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="12">
         <v>1755</v>
@@ -1440,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="12">
         <v>233</v>
@@ -1464,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="12">
         <v>110</v>
@@ -1488,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="12">
         <v>39</v>
@@ -1512,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="14">
         <v>8</v>
@@ -1572,7 +1523,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1580,10 +1531,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1598,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -1607,10 +1558,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="12">
         <v>2192</v>
@@ -1634,10 +1585,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12">
         <v>180</v>
@@ -1661,10 +1612,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="12">
         <v>2484</v>
@@ -1688,10 +1639,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="12">
         <v>238</v>
@@ -1715,10 +1666,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
@@ -1742,10 +1693,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="12">
         <v>21</v>
@@ -1769,10 +1720,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="12">
         <v>7</v>
@@ -1796,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="14">
         <v>4</v>
@@ -1823,10 +1774,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="12">
         <v>2229</v>
@@ -1850,10 +1801,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12">
         <v>186</v>
@@ -1877,10 +1828,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="12">
         <v>2664</v>
@@ -1904,10 +1855,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="12">
         <v>207</v>
@@ -1931,10 +1882,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -1958,10 +1909,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="12">
         <v>31</v>
@@ -1985,10 +1936,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="12">
         <v>12</v>
@@ -2012,10 +1963,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="14">
         <v>5</v>
@@ -2039,10 +1990,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="12">
         <v>1926</v>
@@ -2066,10 +2017,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="12">
         <v>322</v>
@@ -2093,10 +2044,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D22" s="12">
         <v>2301</v>
@@ -2120,10 +2071,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="12">
         <v>139</v>
@@ -2147,10 +2098,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="12">
         <v>2</v>
@@ -2174,10 +2125,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="12">
         <v>45</v>
@@ -2201,10 +2152,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="12">
         <v>13</v>
@@ -2228,10 +2179,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="14">
         <v>4</v>
@@ -2255,10 +2206,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="12">
         <v>1565</v>
@@ -2282,10 +2233,10 @@
         <v>9</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="12">
         <v>334</v>
@@ -2309,10 +2260,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D30" s="12">
         <v>2680</v>
@@ -2336,10 +2287,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="12">
         <v>108</v>
@@ -2363,10 +2314,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="12">
         <v>1</v>
@@ -2390,10 +2341,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="12">
         <v>34</v>
@@ -2417,10 +2368,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="12">
         <v>8</v>
@@ -2444,10 +2395,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="14">
         <v>4</v>
@@ -2471,10 +2422,10 @@
         <v>10</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="12">
         <v>1996</v>
@@ -2498,10 +2449,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="12">
         <v>169</v>
@@ -2525,10 +2476,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D38" s="12">
         <v>2796</v>
@@ -2552,10 +2503,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="12">
         <v>159</v>
@@ -2579,10 +2530,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="12">
         <v>0</v>
@@ -2606,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="12">
         <v>49</v>
@@ -2633,10 +2584,10 @@
         <v>10</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" s="12">
         <v>7</v>
@@ -2660,10 +2611,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="14">
         <v>3</v>
@@ -2722,380 +2673,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Reports/Example Clinical Report.xlsx
+++ b/Reports/Example Clinical Report.xlsx
@@ -639,14 +639,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="8" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="9" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" style="10" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="11" customWidth="1"/>

--- a/Reports/Example Clinical Report.xlsx
+++ b/Reports/Example Clinical Report.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Avg Svc Cost by Dept" sheetId="2" r:id="rId2"/>
     <sheet name="Clients by Dept &amp; Gender" sheetId="3" r:id="rId3"/>
     <sheet name="Clients by Dept &amp; Gender NEW" sheetId="4" r:id="rId4"/>
+    <sheet name="Test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="47">
   <si>
     <t>client_id</t>
   </si>
@@ -155,6 +156,9 @@
   </si>
   <si>
     <t>Unique Clients by Department &amp; Gender (New Gender Classification Method)</t>
+  </si>
+  <si>
+    <t>Single DType Test</t>
   </si>
 </sst>
 </file>
@@ -2978,4 +2982,234 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="17" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="18" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="19" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="20" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="21" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="22" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="23" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="24" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="25" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="26" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="27" width="20.7109375" style="1" customWidth="1"/>
+    <col min="14" max="28" width="20.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>545451</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1232143</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12312.12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7564.234</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2347458</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2145115.54</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.913803587</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.086196413</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K4" s="1">
+        <v>32066</v>
+      </c>
+      <c r="L4" s="1">
+        <v>36962</v>
+      </c>
+      <c r="M4" s="1">
+        <v>35981.23819444444</v>
+      </c>
+      <c r="N4" s="1">
+        <v>38911.65416666667</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>78953</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>234</v>
+      </c>
+      <c r="D5" s="1">
+        <v>67563</v>
+      </c>
+      <c r="E5" s="1">
+        <v>54354.64</v>
+      </c>
+      <c r="F5" s="1">
+        <v>75893</v>
+      </c>
+      <c r="G5" s="1">
+        <v>54312.43</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.7156447889999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.284355211</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.234235</v>
+      </c>
+      <c r="K5" s="1">
+        <v>33830</v>
+      </c>
+      <c r="L5" s="1">
+        <v>38233</v>
+      </c>
+      <c r="M5" s="1">
+        <v>37358.31597222222</v>
+      </c>
+      <c r="N5" s="1">
+        <v>42237.18888888889</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>136566</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23422</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2542.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3242.1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>876</v>
+      </c>
+      <c r="G6" s="1">
+        <v>562.21</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.641792237</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.358207763</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.3214</v>
+      </c>
+      <c r="K6" s="1">
+        <v>44135</v>
+      </c>
+      <c r="L6" s="1">
+        <v>44362</v>
+      </c>
+      <c r="M6" s="1">
+        <v>44178.57291666666</v>
+      </c>
+      <c r="N6" s="1">
+        <v>44632.30069444444</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reports/Example Clinical Report.xlsx
+++ b/Reports/Example Clinical Report.xlsx
@@ -18,49 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="47">
-  <si>
-    <t>client_id</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>cell_count</t>
-  </si>
-  <si>
-    <t>glucose_level</t>
-  </si>
-  <si>
-    <t>sucrose_level</t>
-  </si>
-  <si>
-    <t>procedure_cost</t>
-  </si>
-  <si>
-    <t>insurance_pymt</t>
-  </si>
-  <si>
-    <t>pct_paid</t>
-  </si>
-  <si>
-    <t>client_pay_pct</t>
-  </si>
-  <si>
-    <t>recovery_rate</t>
-  </si>
-  <si>
-    <t>birth_date</t>
-  </si>
-  <si>
-    <t>admit_date</t>
-  </si>
-  <si>
-    <t>chart_start</t>
-  </si>
-  <si>
-    <t>chart_end</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="52">
   <si>
     <t>Beckler</t>
   </si>
@@ -74,6 +32,48 @@
     <t>Example Client Data</t>
   </si>
   <si>
+    <t>Client Id</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Cell Count</t>
+  </si>
+  <si>
+    <t>Glucose Level</t>
+  </si>
+  <si>
+    <t>Sucrose Level</t>
+  </si>
+  <si>
+    <t>Procedure Cost</t>
+  </si>
+  <si>
+    <t>Insurance Pymt</t>
+  </si>
+  <si>
+    <t>Pct Paid</t>
+  </si>
+  <si>
+    <t>Client Pay Pct</t>
+  </si>
+  <si>
+    <t>Recovery Rate</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>Admit Date</t>
+  </si>
+  <si>
+    <t>Chart Start</t>
+  </si>
+  <si>
+    <t>Chart End</t>
+  </si>
+  <si>
     <t>FY 2017-18</t>
   </si>
   <si>
@@ -158,7 +158,22 @@
     <t>Unique Clients by Department &amp; Gender (New Gender Classification Method)</t>
   </si>
   <si>
-    <t>Single DType Test</t>
+    <t>Clean Header Test</t>
+  </si>
+  <si>
+    <t>Fy 2017-18</t>
+  </si>
+  <si>
+    <t>Fy 2018-19</t>
+  </si>
+  <si>
+    <t>Fy 2019-2020</t>
+  </si>
+  <si>
+    <t>Fy 2020-21</t>
+  </si>
+  <si>
+    <t>Fy 2021-22</t>
   </si>
 </sst>
 </file>
@@ -661,51 +676,51 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O3" s="15"/>
     </row>
@@ -714,7 +729,7 @@
         <v>545451</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>1232143</v>
@@ -759,7 +774,7 @@
         <v>78953</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>234</v>
@@ -804,7 +819,7 @@
         <v>136566</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>23422</v>
@@ -2986,230 +3001,782 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="17" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="18" width="14.7109375" style="1" customWidth="1"/>
-    <col min="5" max="19" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="20" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="21" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="22" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="23" width="15.7109375" style="1" customWidth="1"/>
-    <col min="10" max="24" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="25" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="26" width="20.7109375" style="1" customWidth="1"/>
-    <col min="13" max="27" width="20.7109375" style="1" customWidth="1"/>
-    <col min="14" max="28" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2491</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1601</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1898</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1722</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1601</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1758</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1346</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1162</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1208</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1406</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>229</v>
+      </c>
+      <c r="D6" s="1">
+        <v>251</v>
+      </c>
+      <c r="E6" s="1">
+        <v>213</v>
+      </c>
+      <c r="F6" s="1">
+        <v>333</v>
+      </c>
+      <c r="G6" s="1">
+        <v>222</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1">
+        <v>125</v>
+      </c>
+      <c r="E7" s="1">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1">
+        <v>122</v>
+      </c>
+      <c r="G7" s="1">
+        <v>261</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>57</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="24">
+        <v>10</v>
+      </c>
+      <c r="D9" s="24">
+        <v>10</v>
+      </c>
+      <c r="E9" s="24">
+        <v>11</v>
+      </c>
+      <c r="F9" s="24">
+        <v>8</v>
+      </c>
+      <c r="G9" s="24">
+        <v>11</v>
+      </c>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1736</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1691</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1947</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2439</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1647</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1082</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1119</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1980</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1602</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1586</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>140</v>
+      </c>
+      <c r="D12" s="1">
+        <v>172</v>
+      </c>
+      <c r="E12" s="1">
+        <v>159</v>
+      </c>
+      <c r="F12" s="1">
+        <v>241</v>
+      </c>
+      <c r="G12" s="1">
+        <v>300</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>176</v>
+      </c>
+      <c r="D13" s="1">
+        <v>283</v>
+      </c>
+      <c r="E13" s="1">
+        <v>119</v>
+      </c>
+      <c r="F13" s="1">
+        <v>266</v>
+      </c>
+      <c r="G13" s="1">
+        <v>144</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>10</v>
+      </c>
+      <c r="E15" s="24">
+        <v>3</v>
+      </c>
+      <c r="F15" s="24">
+        <v>15</v>
+      </c>
+      <c r="G15" s="24">
+        <v>15</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1629</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1891</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2477</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1848</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1546</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1891</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1246</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1032</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1712</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1761</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>205</v>
+      </c>
+      <c r="D18" s="1">
+        <v>204</v>
+      </c>
+      <c r="E18" s="1">
+        <v>178</v>
+      </c>
+      <c r="F18" s="1">
+        <v>261</v>
+      </c>
+      <c r="G18" s="1">
+        <v>224</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>103</v>
+      </c>
+      <c r="D19" s="1">
+        <v>93</v>
+      </c>
+      <c r="E19" s="1">
+        <v>279</v>
+      </c>
+      <c r="F19" s="1">
+        <v>284</v>
+      </c>
+      <c r="G19" s="1">
+        <v>102</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1">
+        <v>31</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="24">
+        <v>4</v>
+      </c>
+      <c r="D21" s="24">
+        <v>5</v>
+      </c>
+      <c r="E21" s="24">
+        <v>7</v>
+      </c>
+      <c r="F21" s="24">
+        <v>2</v>
+      </c>
+      <c r="G21" s="24">
+        <v>5</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1990</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1669</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2493</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1864</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2200</v>
+      </c>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1760</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1067</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1406</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1193</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1382</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1">
+        <v>333</v>
+      </c>
+      <c r="D24" s="1">
+        <v>148</v>
+      </c>
+      <c r="E24" s="1">
+        <v>288</v>
+      </c>
+      <c r="F24" s="1">
+        <v>284</v>
+      </c>
+      <c r="G24" s="1">
+        <v>333</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1">
+        <v>263</v>
+      </c>
+      <c r="D25" s="1">
+        <v>113</v>
+      </c>
+      <c r="E25" s="1">
+        <v>253</v>
+      </c>
+      <c r="F25" s="1">
+        <v>149</v>
+      </c>
+      <c r="G25" s="1">
+        <v>129</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>51</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="24">
+        <v>15</v>
+      </c>
+      <c r="D27" s="24">
+        <v>13</v>
+      </c>
+      <c r="E27" s="24">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="F27" s="24">
+        <v>10</v>
+      </c>
+      <c r="G27" s="24">
+        <v>11</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2480</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1741</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1508</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2189</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2444</v>
+      </c>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1755</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1224</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1713</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1119</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1130</v>
+      </c>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>233</v>
+      </c>
+      <c r="D30" s="1">
+        <v>275</v>
+      </c>
+      <c r="E30" s="1">
+        <v>197</v>
+      </c>
+      <c r="F30" s="1">
+        <v>183</v>
+      </c>
+      <c r="G30" s="1">
+        <v>187</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>110</v>
+      </c>
+      <c r="D31" s="1">
+        <v>251</v>
+      </c>
+      <c r="E31" s="1">
+        <v>287</v>
+      </c>
+      <c r="F31" s="1">
+        <v>265</v>
+      </c>
+      <c r="G31" s="1">
+        <v>266</v>
+      </c>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1">
+        <v>27</v>
+      </c>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="24">
+        <v>8</v>
+      </c>
+      <c r="D33" s="24">
+        <v>11</v>
+      </c>
+      <c r="E33" s="24">
+        <v>15</v>
+      </c>
+      <c r="F33" s="24">
+        <v>14</v>
+      </c>
+      <c r="G33" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>545451</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1232143</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12312.12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7564.234</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2347458</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2145115.54</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.913803587</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.086196413</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="K4" s="1">
-        <v>32066</v>
-      </c>
-      <c r="L4" s="1">
-        <v>36962</v>
-      </c>
-      <c r="M4" s="1">
-        <v>35981.23819444444</v>
-      </c>
-      <c r="N4" s="1">
-        <v>38911.65416666667</v>
-      </c>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>78953</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>234</v>
-      </c>
-      <c r="D5" s="1">
-        <v>67563</v>
-      </c>
-      <c r="E5" s="1">
-        <v>54354.64</v>
-      </c>
-      <c r="F5" s="1">
-        <v>75893</v>
-      </c>
-      <c r="G5" s="1">
-        <v>54312.43</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.7156447889999999</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.284355211</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.234235</v>
-      </c>
-      <c r="K5" s="1">
-        <v>33830</v>
-      </c>
-      <c r="L5" s="1">
-        <v>38233</v>
-      </c>
-      <c r="M5" s="1">
-        <v>37358.31597222222</v>
-      </c>
-      <c r="N5" s="1">
-        <v>42237.18888888889</v>
-      </c>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>136566</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23422</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2542.3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3242.1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>876</v>
-      </c>
-      <c r="G6" s="1">
-        <v>562.21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.641792237</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.358207763</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.3214</v>
-      </c>
-      <c r="K6" s="1">
-        <v>44135</v>
-      </c>
-      <c r="L6" s="1">
-        <v>44362</v>
-      </c>
-      <c r="M6" s="1">
-        <v>44178.57291666666</v>
-      </c>
-      <c r="N6" s="1">
-        <v>44632.30069444444</v>
-      </c>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reports/Example Clinical Report.xlsx
+++ b/Reports/Example Clinical Report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="66">
   <si>
     <t>Beckler</t>
   </si>
@@ -158,22 +158,64 @@
     <t>Unique Clients by Department &amp; Gender (New Gender Classification Method)</t>
   </si>
   <si>
-    <t>Clean Header Test</t>
-  </si>
-  <si>
-    <t>Fy 2017-18</t>
-  </si>
-  <si>
-    <t>Fy 2018-19</t>
-  </si>
-  <si>
-    <t>Fy 2019-2020</t>
-  </si>
-  <si>
-    <t>Fy 2020-21</t>
-  </si>
-  <si>
-    <t>Fy 2021-22</t>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>nonbinary</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Set Multiindex Data Type Test</t>
+  </si>
+  <si>
+    <t>text_var</t>
+  </si>
+  <si>
+    <t>numeric_var</t>
+  </si>
+  <si>
+    <t>decimal_1_var</t>
+  </si>
+  <si>
+    <t>decimal_2_var</t>
+  </si>
+  <si>
+    <t>dollar_var</t>
+  </si>
+  <si>
+    <t>dollar_cents_var</t>
+  </si>
+  <si>
+    <t>percent_var</t>
+  </si>
+  <si>
+    <t>percent_1_var</t>
+  </si>
+  <si>
+    <t>percent_2_var</t>
+  </si>
+  <si>
+    <t>date_var</t>
+  </si>
+  <si>
+    <t>date_alt_var</t>
+  </si>
+  <si>
+    <t>datetime_var</t>
+  </si>
+  <si>
+    <t>datetime_alt_var</t>
   </si>
 </sst>
 </file>
@@ -194,6 +236,16 @@
     <numFmt numFmtId="174" formatCode="yyyy-mm-dd h:mm"/>
     <numFmt numFmtId="175" formatCode="m/d/yyyy h:mm AM/PM"/>
     <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="$#,##0"/>
+    <numFmt numFmtId="168" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.00%"/>
+    <numFmt numFmtId="172" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="173" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="175" formatCode="m/d/yyyy h:mm AM/PM"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -313,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -358,6 +410,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3001,22 +3064,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:16">
       <c r="A1" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -3024,758 +3100,500 @@
         <v>31</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2491</v>
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
       </c>
       <c r="D4" s="1">
-        <v>1601</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1898</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1722</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1601</v>
-      </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1232143</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12312.12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7564.234</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2347458</v>
+      </c>
+      <c r="H4" s="5">
+        <v>234.52</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.123</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.546542</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="L4" s="9">
+        <v>36597</v>
+      </c>
+      <c r="M4" s="10">
+        <v>32066</v>
+      </c>
+      <c r="N4" s="9">
+        <v>35981.23819444444</v>
+      </c>
+      <c r="O4" s="12">
+        <v>38911.65416666667</v>
+      </c>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1758</v>
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
       </c>
       <c r="D5" s="1">
-        <v>1346</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1162</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1208</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1406</v>
-      </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="E5" s="2">
+        <v>67563</v>
+      </c>
+      <c r="F5" s="3">
+        <v>54354.64</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4564</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2345115.54</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.63434</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.234235</v>
+      </c>
+      <c r="L5" s="9">
+        <v>33830</v>
+      </c>
+      <c r="M5" s="10">
+        <v>38233</v>
+      </c>
+      <c r="N5" s="9">
+        <v>38819.31597222222</v>
+      </c>
+      <c r="O5" s="12">
+        <v>42237.18888888889</v>
+      </c>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1">
-        <v>229</v>
-      </c>
-      <c r="D6" s="1">
-        <v>251</v>
-      </c>
-      <c r="E6" s="1">
-        <v>213</v>
-      </c>
-      <c r="F6" s="1">
-        <v>333</v>
-      </c>
-      <c r="G6" s="1">
-        <v>222</v>
-      </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="24">
+        <v>23422</v>
+      </c>
+      <c r="E6" s="27">
+        <v>2542.3</v>
+      </c>
+      <c r="F6" s="28">
+        <v>3242.1</v>
+      </c>
+      <c r="G6" s="29">
+        <v>876</v>
+      </c>
+      <c r="H6" s="30">
+        <v>54312.43</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0.912</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0.3214</v>
+      </c>
+      <c r="L6" s="34">
+        <v>44135</v>
+      </c>
+      <c r="M6" s="35">
+        <v>44362</v>
+      </c>
+      <c r="N6" s="34">
+        <v>41256.57291666666</v>
+      </c>
+      <c r="O6" s="36">
+        <v>43536.30069444444</v>
+      </c>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1">
-        <v>103</v>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="1">
-        <v>125</v>
-      </c>
-      <c r="E7" s="1">
-        <v>197</v>
-      </c>
-      <c r="F7" s="1">
-        <v>122</v>
-      </c>
-      <c r="G7" s="1">
-        <v>261</v>
-      </c>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="E7" s="2">
+        <v>67563</v>
+      </c>
+      <c r="F7" s="3">
+        <v>54354.64</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4564</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2345115.54</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.63434</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.234235</v>
+      </c>
+      <c r="L7" s="9">
+        <v>33830</v>
+      </c>
+      <c r="M7" s="10">
+        <v>38233</v>
+      </c>
+      <c r="N7" s="9">
+        <v>38819.31597222222</v>
+      </c>
+      <c r="O7" s="12">
+        <v>42237.18888888889</v>
+      </c>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
       </c>
       <c r="D8" s="1">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1">
-        <v>57</v>
-      </c>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23422</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2542.3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3242.1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>876</v>
+      </c>
+      <c r="H8" s="5">
+        <v>54312.43</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.912</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.3214</v>
+      </c>
+      <c r="L8" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M8" s="10">
+        <v>44362</v>
+      </c>
+      <c r="N8" s="9">
+        <v>41256.57291666666</v>
+      </c>
+      <c r="O8" s="12">
+        <v>43536.30069444444</v>
+      </c>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="24">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="24">
-        <v>10</v>
-      </c>
-      <c r="E9" s="24">
-        <v>11</v>
-      </c>
-      <c r="F9" s="24">
-        <v>8</v>
-      </c>
-      <c r="G9" s="24">
-        <v>11</v>
-      </c>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1232143</v>
+      </c>
+      <c r="E9" s="27">
+        <v>12312.12</v>
+      </c>
+      <c r="F9" s="28">
+        <v>7564.234</v>
+      </c>
+      <c r="G9" s="29">
+        <v>2347458</v>
+      </c>
+      <c r="H9" s="30">
+        <v>234.52</v>
+      </c>
+      <c r="I9" s="31">
+        <v>0.123</v>
+      </c>
+      <c r="J9" s="32">
+        <v>0.546542</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="L9" s="34">
+        <v>36597</v>
+      </c>
+      <c r="M9" s="35">
+        <v>32066</v>
+      </c>
+      <c r="N9" s="34">
+        <v>35981.23819444444</v>
+      </c>
+      <c r="O9" s="36">
+        <v>38911.65416666667</v>
+      </c>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1736</v>
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
       </c>
       <c r="D10" s="1">
-        <v>1691</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1947</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2439</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1647</v>
-      </c>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8">
+        <v>23422</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2542.3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3242.1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>876</v>
+      </c>
+      <c r="H10" s="5">
+        <v>54312.43</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.912</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.3214</v>
+      </c>
+      <c r="L10" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M10" s="10">
+        <v>44362</v>
+      </c>
+      <c r="N10" s="9">
+        <v>41256.57291666666</v>
+      </c>
+      <c r="O10" s="12">
+        <v>43536.30069444444</v>
+      </c>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1082</v>
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="1">
-        <v>1119</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1980</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1602</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1586</v>
-      </c>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8">
+        <v>1232143</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12312.12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7564.234</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2347458</v>
+      </c>
+      <c r="H11" s="5">
+        <v>234.52</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.123</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.546542</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="L11" s="9">
+        <v>36597</v>
+      </c>
+      <c r="M11" s="10">
+        <v>32066</v>
+      </c>
+      <c r="N11" s="9">
+        <v>35981.23819444444</v>
+      </c>
+      <c r="O11" s="12">
+        <v>38911.65416666667</v>
+      </c>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <v>140</v>
-      </c>
-      <c r="D12" s="1">
-        <v>172</v>
-      </c>
-      <c r="E12" s="1">
-        <v>159</v>
-      </c>
-      <c r="F12" s="1">
-        <v>241</v>
-      </c>
-      <c r="G12" s="1">
-        <v>300</v>
-      </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1">
-        <v>176</v>
-      </c>
-      <c r="D13" s="1">
-        <v>283</v>
-      </c>
-      <c r="E13" s="1">
-        <v>119</v>
-      </c>
-      <c r="F13" s="1">
-        <v>266</v>
-      </c>
-      <c r="G13" s="1">
-        <v>144</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1">
-        <v>45</v>
-      </c>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="24">
-        <v>1</v>
-      </c>
-      <c r="D15" s="24">
-        <v>10</v>
-      </c>
-      <c r="E15" s="24">
-        <v>3</v>
-      </c>
-      <c r="F15" s="24">
-        <v>15</v>
-      </c>
-      <c r="G15" s="24">
-        <v>15</v>
-      </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1629</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1891</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2477</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1848</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1546</v>
-      </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1891</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1246</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1032</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1712</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1761</v>
-      </c>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1">
-        <v>205</v>
-      </c>
-      <c r="D18" s="1">
-        <v>204</v>
-      </c>
-      <c r="E18" s="1">
-        <v>178</v>
-      </c>
-      <c r="F18" s="1">
-        <v>261</v>
-      </c>
-      <c r="G18" s="1">
-        <v>224</v>
-      </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1">
-        <v>103</v>
-      </c>
-      <c r="D19" s="1">
-        <v>93</v>
-      </c>
-      <c r="E19" s="1">
-        <v>279</v>
-      </c>
-      <c r="F19" s="1">
-        <v>284</v>
-      </c>
-      <c r="G19" s="1">
-        <v>102</v>
-      </c>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1">
-        <v>37</v>
-      </c>
-      <c r="F20" s="1">
-        <v>44</v>
-      </c>
-      <c r="G20" s="1">
-        <v>31</v>
-      </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="24">
-        <v>4</v>
-      </c>
-      <c r="D21" s="24">
-        <v>5</v>
-      </c>
-      <c r="E21" s="24">
-        <v>7</v>
-      </c>
-      <c r="F21" s="24">
-        <v>2</v>
-      </c>
-      <c r="G21" s="24">
-        <v>5</v>
-      </c>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1990</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1669</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2493</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1864</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2200</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1760</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1067</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1406</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1193</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1382</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1">
-        <v>333</v>
-      </c>
-      <c r="D24" s="1">
-        <v>148</v>
-      </c>
-      <c r="E24" s="1">
-        <v>288</v>
-      </c>
-      <c r="F24" s="1">
-        <v>284</v>
-      </c>
-      <c r="G24" s="1">
-        <v>333</v>
-      </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1">
-        <v>263</v>
-      </c>
-      <c r="D25" s="1">
-        <v>113</v>
-      </c>
-      <c r="E25" s="1">
-        <v>253</v>
-      </c>
-      <c r="F25" s="1">
-        <v>149</v>
-      </c>
-      <c r="G25" s="1">
-        <v>129</v>
-      </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1">
-        <v>46</v>
-      </c>
-      <c r="D26" s="1">
-        <v>52</v>
-      </c>
-      <c r="E26" s="1">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1">
-        <v>51</v>
-      </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="24">
-        <v>15</v>
-      </c>
-      <c r="D27" s="24">
-        <v>13</v>
-      </c>
-      <c r="E27" s="24">
-        <v>0</v>
-      </c>
-      <c r="F27" s="24">
-        <v>10</v>
-      </c>
-      <c r="G27" s="24">
-        <v>11</v>
-      </c>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2480</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1741</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1508</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2189</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2444</v>
-      </c>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1755</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1224</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1713</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1119</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1130</v>
-      </c>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1">
-        <v>233</v>
-      </c>
-      <c r="D30" s="1">
-        <v>275</v>
-      </c>
-      <c r="E30" s="1">
-        <v>197</v>
-      </c>
-      <c r="F30" s="1">
-        <v>183</v>
-      </c>
-      <c r="G30" s="1">
-        <v>187</v>
-      </c>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1">
-        <v>110</v>
-      </c>
-      <c r="D31" s="1">
-        <v>251</v>
-      </c>
-      <c r="E31" s="1">
-        <v>287</v>
-      </c>
-      <c r="F31" s="1">
-        <v>265</v>
-      </c>
-      <c r="G31" s="1">
-        <v>266</v>
-      </c>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1">
-        <v>39</v>
-      </c>
-      <c r="D32" s="1">
-        <v>54</v>
-      </c>
-      <c r="E32" s="1">
-        <v>11</v>
-      </c>
-      <c r="F32" s="1">
-        <v>39</v>
-      </c>
-      <c r="G32" s="1">
-        <v>27</v>
-      </c>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="24">
-        <v>8</v>
-      </c>
-      <c r="D33" s="24">
-        <v>11</v>
-      </c>
-      <c r="E33" s="24">
-        <v>15</v>
-      </c>
-      <c r="F33" s="24">
-        <v>14</v>
-      </c>
-      <c r="G33" s="24">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="B12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="24">
+        <v>234</v>
+      </c>
+      <c r="E12" s="27">
+        <v>67563</v>
+      </c>
+      <c r="F12" s="28">
+        <v>54354.64</v>
+      </c>
+      <c r="G12" s="29">
+        <v>4564</v>
+      </c>
+      <c r="H12" s="30">
+        <v>2345115.54</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0.63434</v>
+      </c>
+      <c r="J12" s="32">
+        <v>0.32</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0.234235</v>
+      </c>
+      <c r="L12" s="34">
+        <v>33830</v>
+      </c>
+      <c r="M12" s="35">
+        <v>38233</v>
+      </c>
+      <c r="N12" s="34">
+        <v>38819.31597222222</v>
+      </c>
+      <c r="O12" s="36">
+        <v>42237.18888888889</v>
+      </c>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reports/Example Clinical Report.xlsx
+++ b/Reports/Example Clinical Report.xlsx
@@ -20,6 +20,48 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="66">
   <si>
+    <t>Client Id</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Cell Count</t>
+  </si>
+  <si>
+    <t>Glucose Level</t>
+  </si>
+  <si>
+    <t>Sucrose Level</t>
+  </si>
+  <si>
+    <t>Procedure Cost</t>
+  </si>
+  <si>
+    <t>Insurance Pymt</t>
+  </si>
+  <si>
+    <t>Pct Paid</t>
+  </si>
+  <si>
+    <t>Client Pay Pct</t>
+  </si>
+  <si>
+    <t>Recovery Rate</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>Admit Date</t>
+  </si>
+  <si>
+    <t>Chart Start</t>
+  </si>
+  <si>
+    <t>Chart End</t>
+  </si>
+  <si>
     <t>Beckler</t>
   </si>
   <si>
@@ -32,48 +74,6 @@
     <t>Example Client Data</t>
   </si>
   <si>
-    <t>Client Id</t>
-  </si>
-  <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>Cell Count</t>
-  </si>
-  <si>
-    <t>Glucose Level</t>
-  </si>
-  <si>
-    <t>Sucrose Level</t>
-  </si>
-  <si>
-    <t>Procedure Cost</t>
-  </si>
-  <si>
-    <t>Insurance Pymt</t>
-  </si>
-  <si>
-    <t>Pct Paid</t>
-  </si>
-  <si>
-    <t>Client Pay Pct</t>
-  </si>
-  <si>
-    <t>Recovery Rate</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>Admit Date</t>
-  </si>
-  <si>
-    <t>Chart Start</t>
-  </si>
-  <si>
-    <t>Chart End</t>
-  </si>
-  <si>
     <t>FY 2017-18</t>
   </si>
   <si>
@@ -158,6 +158,45 @@
     <t>Unique Clients by Department &amp; Gender (New Gender Classification Method)</t>
   </si>
   <si>
+    <t>Text Var</t>
+  </si>
+  <si>
+    <t>Numeric Var</t>
+  </si>
+  <si>
+    <t>Decimal 1 Var</t>
+  </si>
+  <si>
+    <t>Decimal 2 Var</t>
+  </si>
+  <si>
+    <t>Dollar Var</t>
+  </si>
+  <si>
+    <t>Dollar Cents Var</t>
+  </si>
+  <si>
+    <t>Percent Var</t>
+  </si>
+  <si>
+    <t>Percent 1 Var</t>
+  </si>
+  <si>
+    <t>Percent 2 Var</t>
+  </si>
+  <si>
+    <t>Date Var</t>
+  </si>
+  <si>
+    <t>Date Alt Var</t>
+  </si>
+  <si>
+    <t>Datetime Var</t>
+  </si>
+  <si>
+    <t>Datetime Alt Var</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -177,45 +216,6 @@
   </si>
   <si>
     <t>Set Multiindex Data Type Test</t>
-  </si>
-  <si>
-    <t>text_var</t>
-  </si>
-  <si>
-    <t>numeric_var</t>
-  </si>
-  <si>
-    <t>decimal_1_var</t>
-  </si>
-  <si>
-    <t>decimal_2_var</t>
-  </si>
-  <si>
-    <t>dollar_var</t>
-  </si>
-  <si>
-    <t>dollar_cents_var</t>
-  </si>
-  <si>
-    <t>percent_var</t>
-  </si>
-  <si>
-    <t>percent_1_var</t>
-  </si>
-  <si>
-    <t>percent_2_var</t>
-  </si>
-  <si>
-    <t>date_var</t>
-  </si>
-  <si>
-    <t>date_alt_var</t>
-  </si>
-  <si>
-    <t>datetime_var</t>
-  </si>
-  <si>
-    <t>datetime_alt_var</t>
   </si>
 </sst>
 </file>
@@ -739,51 +739,51 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="O3" s="15"/>
     </row>
@@ -792,7 +792,7 @@
         <v>545451</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>1232143</v>
@@ -837,7 +837,7 @@
         <v>78953</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>234</v>
@@ -882,7 +882,7 @@
         <v>136566</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>23422</v>
@@ -3089,7 +3089,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="13" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3100,43 +3100,43 @@
         <v>31</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="P3" s="15"/>
     </row>
@@ -3145,10 +3145,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1">
         <v>1232143</v>
@@ -3193,10 +3193,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1">
         <v>234</v>
@@ -3241,10 +3241,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D6" s="24">
         <v>23422</v>
@@ -3289,10 +3289,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>234</v>
@@ -3337,10 +3337,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1">
         <v>23422</v>
@@ -3385,10 +3385,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D9" s="24">
         <v>1232143</v>
@@ -3433,10 +3433,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1">
         <v>23422</v>
@@ -3481,10 +3481,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1">
         <v>1232143</v>
@@ -3529,10 +3529,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D12" s="24">
         <v>234</v>
